--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hras-Cav1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hras-Cav1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.769008115661711</v>
+        <v>9.049481999999999</v>
       </c>
       <c r="H2">
-        <v>8.769008115661711</v>
+        <v>27.148446</v>
       </c>
       <c r="I2">
-        <v>0.280410950031407</v>
+        <v>0.2715881048104983</v>
       </c>
       <c r="J2">
-        <v>0.280410950031407</v>
+        <v>0.2887858053066977</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>726.742657863424</v>
+        <v>780.134654</v>
       </c>
       <c r="N2">
-        <v>726.742657863424</v>
+        <v>2340.403962</v>
       </c>
       <c r="O2">
-        <v>0.7571451431111198</v>
+        <v>0.7636771497364756</v>
       </c>
       <c r="P2">
-        <v>0.7571451431111198</v>
+        <v>0.8065527316666545</v>
       </c>
       <c r="Q2">
-        <v>6372.812264801927</v>
+        <v>7059.814508949227</v>
       </c>
       <c r="R2">
-        <v>6372.812264801927</v>
+        <v>63538.33058054305</v>
       </c>
       <c r="S2">
-        <v>0.2123117888914547</v>
+        <v>0.2074056297840126</v>
       </c>
       <c r="T2">
-        <v>0.2123117888914547</v>
+        <v>0.2329209801366717</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.769008115661711</v>
+        <v>9.049481999999999</v>
       </c>
       <c r="H3">
-        <v>8.769008115661711</v>
+        <v>27.148446</v>
       </c>
       <c r="I3">
-        <v>0.280410950031407</v>
+        <v>0.2715881048104983</v>
       </c>
       <c r="J3">
-        <v>0.280410950031407</v>
+        <v>0.2887858053066977</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>69.6939144568862</v>
+        <v>75.879851</v>
       </c>
       <c r="N3">
-        <v>69.6939144568862</v>
+        <v>227.639553</v>
       </c>
       <c r="O3">
-        <v>0.07260948323932014</v>
+        <v>0.0742791107111984</v>
       </c>
       <c r="P3">
-        <v>0.07260948323932014</v>
+        <v>0.07844940714876734</v>
       </c>
       <c r="Q3">
-        <v>611.1465014846682</v>
+        <v>686.6733457871819</v>
       </c>
       <c r="R3">
-        <v>611.1465014846682</v>
+        <v>6180.060112084638</v>
       </c>
       <c r="S3">
-        <v>0.02036049417642729</v>
+        <v>0.02017332290506356</v>
       </c>
       <c r="T3">
-        <v>0.02036049417642729</v>
+        <v>0.02265507521928979</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.769008115661711</v>
+        <v>9.049481999999999</v>
       </c>
       <c r="H4">
-        <v>8.769008115661711</v>
+        <v>27.148446</v>
       </c>
       <c r="I4">
-        <v>0.280410950031407</v>
+        <v>0.2715881048104983</v>
       </c>
       <c r="J4">
-        <v>0.280410950031407</v>
+        <v>0.2887858053066977</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.45973330337453</v>
+        <v>1.487823</v>
       </c>
       <c r="N4">
-        <v>1.45973330337453</v>
+        <v>4.463469</v>
       </c>
       <c r="O4">
-        <v>0.001520799651608287</v>
+        <v>0.001456436298691036</v>
       </c>
       <c r="P4">
-        <v>0.001520799651608287</v>
+        <v>0.001538205870914276</v>
       </c>
       <c r="Q4">
-        <v>12.80041318399293</v>
+        <v>13.464027457686</v>
       </c>
       <c r="R4">
-        <v>12.80041318399293</v>
+        <v>121.176247119174</v>
       </c>
       <c r="S4">
-        <v>0.0004264488751149127</v>
+        <v>0.0003955507741387154</v>
       </c>
       <c r="T4">
-        <v>0.0004264488751149127</v>
+        <v>0.0004442120211594694</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.769008115661711</v>
+        <v>9.049481999999999</v>
       </c>
       <c r="H5">
-        <v>8.769008115661711</v>
+        <v>27.148446</v>
       </c>
       <c r="I5">
-        <v>0.280410950031407</v>
+        <v>0.2715881048104983</v>
       </c>
       <c r="J5">
-        <v>0.280410950031407</v>
+        <v>0.2887858053066977</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.07098096819435</v>
+        <v>1.134058666666667</v>
       </c>
       <c r="N5">
-        <v>1.07098096819435</v>
+        <v>3.402176</v>
       </c>
       <c r="O5">
-        <v>0.001115784287132332</v>
+        <v>0.001110134879604961</v>
       </c>
       <c r="P5">
-        <v>0.001115784287132332</v>
+        <v>0.001172461844606437</v>
       </c>
       <c r="Q5">
-        <v>9.391440801815492</v>
+        <v>10.262643490944</v>
       </c>
       <c r="R5">
-        <v>9.391440801815492</v>
+        <v>92.36379141849601</v>
       </c>
       <c r="S5">
-        <v>0.0003128781319848935</v>
+        <v>0.0003014994280359421</v>
       </c>
       <c r="T5">
-        <v>0.0003128781319848935</v>
+        <v>0.0003385903379860461</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.769008115661711</v>
+        <v>9.049481999999999</v>
       </c>
       <c r="H6">
-        <v>8.769008115661711</v>
+        <v>27.148446</v>
       </c>
       <c r="I6">
-        <v>0.280410950031407</v>
+        <v>0.2715881048104983</v>
       </c>
       <c r="J6">
-        <v>0.280410950031407</v>
+        <v>0.2887858053066977</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>160.878608842685</v>
+        <v>162.913956</v>
       </c>
       <c r="N6">
-        <v>160.878608842685</v>
+        <v>325.827912</v>
       </c>
       <c r="O6">
-        <v>0.1676087897108194</v>
+        <v>0.1594771683740299</v>
       </c>
       <c r="P6">
-        <v>0.1676087897108194</v>
+        <v>0.1122871934690573</v>
       </c>
       <c r="Q6">
-        <v>1410.745826577871</v>
+        <v>1474.286912370792</v>
       </c>
       <c r="R6">
-        <v>1410.745826577871</v>
+        <v>8845.721474224751</v>
       </c>
       <c r="S6">
-        <v>0.04699933995642518</v>
+        <v>0.04331210191924754</v>
       </c>
       <c r="T6">
-        <v>0.04699933995642518</v>
+        <v>0.0324269475915907</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.05344299852703</v>
+        <v>5.313100666666667</v>
       </c>
       <c r="H7">
-        <v>5.05344299852703</v>
+        <v>15.939302</v>
       </c>
       <c r="I7">
-        <v>0.1615964694588034</v>
+        <v>0.1594538715837432</v>
       </c>
       <c r="J7">
-        <v>0.1615964694588034</v>
+        <v>0.1695509261965366</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>726.742657863424</v>
+        <v>780.134654</v>
       </c>
       <c r="N7">
-        <v>726.742657863424</v>
+        <v>2340.403962</v>
       </c>
       <c r="O7">
-        <v>0.7571451431111198</v>
+        <v>0.7636771497364756</v>
       </c>
       <c r="P7">
-        <v>0.7571451431111198</v>
+        <v>0.8065527316666545</v>
       </c>
       <c r="Q7">
-        <v>3672.552596110845</v>
+        <v>4144.933950257169</v>
       </c>
       <c r="R7">
-        <v>3672.552596110845</v>
+        <v>37304.40555231452</v>
       </c>
       <c r="S7">
-        <v>0.1223519819946374</v>
+        <v>0.121771278165519</v>
       </c>
       <c r="T7">
-        <v>0.1223519819946374</v>
+        <v>0.1367517626804279</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.05344299852703</v>
+        <v>5.313100666666667</v>
       </c>
       <c r="H8">
-        <v>5.05344299852703</v>
+        <v>15.939302</v>
       </c>
       <c r="I8">
-        <v>0.1615964694588034</v>
+        <v>0.1594538715837432</v>
       </c>
       <c r="J8">
-        <v>0.1615964694588034</v>
+        <v>0.1695509261965366</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>69.6939144568862</v>
+        <v>75.879851</v>
       </c>
       <c r="N8">
-        <v>69.6939144568862</v>
+        <v>227.639553</v>
       </c>
       <c r="O8">
-        <v>0.07260948323932014</v>
+        <v>0.0742791107111984</v>
       </c>
       <c r="P8">
-        <v>0.07260948323932014</v>
+        <v>0.07844940714876734</v>
       </c>
       <c r="Q8">
-        <v>352.1942240520934</v>
+        <v>403.1572869346674</v>
       </c>
       <c r="R8">
-        <v>352.1942240520934</v>
+        <v>3628.415582412007</v>
       </c>
       <c r="S8">
-        <v>0.01173343614070229</v>
+        <v>0.01184409178069807</v>
       </c>
       <c r="T8">
-        <v>0.01173343614070229</v>
+        <v>0.0133011696416427</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.05344299852703</v>
+        <v>5.313100666666667</v>
       </c>
       <c r="H9">
-        <v>5.05344299852703</v>
+        <v>15.939302</v>
       </c>
       <c r="I9">
-        <v>0.1615964694588034</v>
+        <v>0.1594538715837432</v>
       </c>
       <c r="J9">
-        <v>0.1615964694588034</v>
+        <v>0.1695509261965366</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.45973330337453</v>
+        <v>1.487823</v>
       </c>
       <c r="N9">
-        <v>1.45973330337453</v>
+        <v>4.463469</v>
       </c>
       <c r="O9">
-        <v>0.001520799651608287</v>
+        <v>0.001456436298691036</v>
       </c>
       <c r="P9">
-        <v>0.001520799651608287</v>
+        <v>0.001538205870914276</v>
       </c>
       <c r="Q9">
-        <v>7.376679041654752</v>
+        <v>7.904953373182</v>
       </c>
       <c r="R9">
-        <v>7.376679041654752</v>
+        <v>71.14458035863801</v>
       </c>
       <c r="S9">
-        <v>0.0002457558544540775</v>
+        <v>0.0002322344065413828</v>
       </c>
       <c r="T9">
-        <v>0.0002457558544540775</v>
+        <v>0.0002608042300944656</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.05344299852703</v>
+        <v>5.313100666666667</v>
       </c>
       <c r="H10">
-        <v>5.05344299852703</v>
+        <v>15.939302</v>
       </c>
       <c r="I10">
-        <v>0.1615964694588034</v>
+        <v>0.1594538715837432</v>
       </c>
       <c r="J10">
-        <v>0.1615964694588034</v>
+        <v>0.1695509261965366</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.07098096819435</v>
+        <v>1.134058666666667</v>
       </c>
       <c r="N10">
-        <v>1.07098096819435</v>
+        <v>3.402176</v>
       </c>
       <c r="O10">
-        <v>0.001115784287132332</v>
+        <v>0.001110134879604961</v>
       </c>
       <c r="P10">
-        <v>0.001115784287132332</v>
+        <v>0.001172461844606437</v>
       </c>
       <c r="Q10">
-        <v>5.412141275277438</v>
+        <v>6.025367857905779</v>
       </c>
       <c r="R10">
-        <v>5.412141275277438</v>
+        <v>54.22831072115201</v>
       </c>
       <c r="S10">
-        <v>0.0001803068014781926</v>
+        <v>0.0001770153045331637</v>
       </c>
       <c r="T10">
-        <v>0.0001803068014781926</v>
+        <v>0.0001987919916831211</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.05344299852703</v>
+        <v>5.313100666666667</v>
       </c>
       <c r="H11">
-        <v>5.05344299852703</v>
+        <v>15.939302</v>
       </c>
       <c r="I11">
-        <v>0.1615964694588034</v>
+        <v>0.1594538715837432</v>
       </c>
       <c r="J11">
-        <v>0.1615964694588034</v>
+        <v>0.1695509261965366</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>160.878608842685</v>
+        <v>162.913956</v>
       </c>
       <c r="N11">
-        <v>160.878608842685</v>
+        <v>325.827912</v>
       </c>
       <c r="O11">
-        <v>0.1676087897108194</v>
+        <v>0.1594771683740299</v>
       </c>
       <c r="P11">
-        <v>0.1676087897108194</v>
+        <v>0.1122871934690573</v>
       </c>
       <c r="Q11">
-        <v>812.9908794688353</v>
+        <v>865.578248232904</v>
       </c>
       <c r="R11">
-        <v>812.9908794688353</v>
+        <v>5193.469489397424</v>
       </c>
       <c r="S11">
-        <v>0.02708498866753143</v>
+        <v>0.02542925192645156</v>
       </c>
       <c r="T11">
-        <v>0.02708498866753143</v>
+        <v>0.01903839765268836</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.52104509381789</v>
+        <v>4.671725333333334</v>
       </c>
       <c r="H12">
-        <v>4.52104509381789</v>
+        <v>14.015176</v>
       </c>
       <c r="I12">
-        <v>0.1445717158851827</v>
+        <v>0.1402052658345742</v>
       </c>
       <c r="J12">
-        <v>0.1445717158851827</v>
+        <v>0.1490834461639205</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>726.742657863424</v>
+        <v>780.134654</v>
       </c>
       <c r="N12">
-        <v>726.742657863424</v>
+        <v>2340.403962</v>
       </c>
       <c r="O12">
-        <v>0.7571451431111198</v>
+        <v>0.7636771497364756</v>
       </c>
       <c r="P12">
-        <v>0.7571451431111198</v>
+        <v>0.8065527316666545</v>
       </c>
       <c r="Q12">
-        <v>3285.636327801607</v>
+        <v>3644.574826503035</v>
       </c>
       <c r="R12">
-        <v>3285.636327801607</v>
+        <v>32801.17343852731</v>
       </c>
       <c r="S12">
-        <v>0.1094617725137068</v>
+        <v>0.1070715577905925</v>
       </c>
       <c r="T12">
-        <v>0.1094617725137068</v>
+        <v>0.1202436607497887</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.52104509381789</v>
+        <v>4.671725333333334</v>
       </c>
       <c r="H13">
-        <v>4.52104509381789</v>
+        <v>14.015176</v>
       </c>
       <c r="I13">
-        <v>0.1445717158851827</v>
+        <v>0.1402052658345742</v>
       </c>
       <c r="J13">
-        <v>0.1445717158851827</v>
+        <v>0.1490834461639205</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>69.6939144568862</v>
+        <v>75.879851</v>
       </c>
       <c r="N13">
-        <v>69.6939144568862</v>
+        <v>227.639553</v>
       </c>
       <c r="O13">
-        <v>0.07260948323932014</v>
+        <v>0.0742791107111984</v>
       </c>
       <c r="P13">
-        <v>0.07260948323932014</v>
+        <v>0.07844940714876734</v>
       </c>
       <c r="Q13">
-        <v>315.0893300242691</v>
+        <v>354.4898222062587</v>
       </c>
       <c r="R13">
-        <v>315.0893300242691</v>
+        <v>3190.408399856328</v>
       </c>
       <c r="S13">
-        <v>0.01049727758144493</v>
+        <v>0.01041432246321934</v>
       </c>
       <c r="T13">
-        <v>0.01049727758144493</v>
+        <v>0.01169550796725474</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.52104509381789</v>
+        <v>4.671725333333334</v>
       </c>
       <c r="H14">
-        <v>4.52104509381789</v>
+        <v>14.015176</v>
       </c>
       <c r="I14">
-        <v>0.1445717158851827</v>
+        <v>0.1402052658345742</v>
       </c>
       <c r="J14">
-        <v>0.1445717158851827</v>
+        <v>0.1490834461639205</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.45973330337453</v>
+        <v>1.487823</v>
       </c>
       <c r="N14">
-        <v>1.45973330337453</v>
+        <v>4.463469</v>
       </c>
       <c r="O14">
-        <v>0.001520799651608287</v>
+        <v>0.001456436298691036</v>
       </c>
       <c r="P14">
-        <v>0.001520799651608287</v>
+        <v>0.001538205870914276</v>
       </c>
       <c r="Q14">
-        <v>6.599520089504001</v>
+        <v>6.950700400616</v>
       </c>
       <c r="R14">
-        <v>6.599520089504001</v>
+        <v>62.556303605544</v>
       </c>
       <c r="S14">
-        <v>0.0002198646151505982</v>
+        <v>0.0002042000384291</v>
       </c>
       <c r="T14">
-        <v>0.0002198646151505982</v>
+        <v>0.0002293210321454748</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.52104509381789</v>
+        <v>4.671725333333334</v>
       </c>
       <c r="H15">
-        <v>4.52104509381789</v>
+        <v>14.015176</v>
       </c>
       <c r="I15">
-        <v>0.1445717158851827</v>
+        <v>0.1402052658345742</v>
       </c>
       <c r="J15">
-        <v>0.1445717158851827</v>
+        <v>0.1490834461639205</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.07098096819435</v>
+        <v>1.134058666666667</v>
       </c>
       <c r="N15">
-        <v>1.07098096819435</v>
+        <v>3.402176</v>
       </c>
       <c r="O15">
-        <v>0.001115784287132332</v>
+        <v>0.001110134879604961</v>
       </c>
       <c r="P15">
-        <v>0.001115784287132332</v>
+        <v>0.001172461844606437</v>
       </c>
       <c r="Q15">
-        <v>4.8419532518274</v>
+        <v>5.29801060255289</v>
       </c>
       <c r="R15">
-        <v>4.8419532518274</v>
+        <v>47.682095422976</v>
       </c>
       <c r="S15">
-        <v>0.0001613108489484467</v>
+        <v>0.0001556467559072466</v>
       </c>
       <c r="T15">
-        <v>0.0001613108489484467</v>
+        <v>0.0001747946522896346</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.52104509381789</v>
+        <v>4.671725333333334</v>
       </c>
       <c r="H16">
-        <v>4.52104509381789</v>
+        <v>14.015176</v>
       </c>
       <c r="I16">
-        <v>0.1445717158851827</v>
+        <v>0.1402052658345742</v>
       </c>
       <c r="J16">
-        <v>0.1445717158851827</v>
+        <v>0.1490834461639205</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>160.878608842685</v>
+        <v>162.913956</v>
       </c>
       <c r="N16">
-        <v>160.878608842685</v>
+        <v>325.827912</v>
       </c>
       <c r="O16">
-        <v>0.1676087897108194</v>
+        <v>0.1594771683740299</v>
       </c>
       <c r="P16">
-        <v>0.1676087897108194</v>
+        <v>0.1122871934690573</v>
       </c>
       <c r="Q16">
-        <v>727.3394452084684</v>
+        <v>761.089255398752</v>
       </c>
       <c r="R16">
-        <v>727.3394452084684</v>
+        <v>4566.535532392511</v>
       </c>
       <c r="S16">
-        <v>0.02423149032593192</v>
+        <v>0.02235953878642601</v>
       </c>
       <c r="T16">
-        <v>0.02423149032593192</v>
+        <v>0.01674016176244194</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.90496562051567</v>
+        <v>8.333402</v>
       </c>
       <c r="H17">
-        <v>7.90496562051567</v>
+        <v>25.000206</v>
       </c>
       <c r="I17">
-        <v>0.2527810318313455</v>
+        <v>0.2500975034597578</v>
       </c>
       <c r="J17">
-        <v>0.2527810318313455</v>
+        <v>0.2659343603881907</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>726.742657863424</v>
+        <v>780.134654</v>
       </c>
       <c r="N17">
-        <v>726.742657863424</v>
+        <v>2340.403962</v>
       </c>
       <c r="O17">
-        <v>0.7571451431111198</v>
+        <v>0.7636771497364756</v>
       </c>
       <c r="P17">
-        <v>0.7571451431111198</v>
+        <v>0.8065527316666545</v>
       </c>
       <c r="Q17">
-        <v>5744.875725372549</v>
+        <v>6501.175685912907</v>
       </c>
       <c r="R17">
-        <v>5744.875725372549</v>
+        <v>58510.58117321617</v>
       </c>
       <c r="S17">
-        <v>0.1913919305217206</v>
+        <v>0.1909937485983562</v>
       </c>
       <c r="T17">
-        <v>0.1913919305217206</v>
+        <v>0.2144900848151198</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.90496562051567</v>
+        <v>8.333402</v>
       </c>
       <c r="H18">
-        <v>7.90496562051567</v>
+        <v>25.000206</v>
       </c>
       <c r="I18">
-        <v>0.2527810318313455</v>
+        <v>0.2500975034597578</v>
       </c>
       <c r="J18">
-        <v>0.2527810318313455</v>
+        <v>0.2659343603881907</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>69.6939144568862</v>
+        <v>75.879851</v>
       </c>
       <c r="N18">
-        <v>69.6939144568862</v>
+        <v>227.639553</v>
       </c>
       <c r="O18">
-        <v>0.07260948323932014</v>
+        <v>0.0742791107111984</v>
       </c>
       <c r="P18">
-        <v>0.07260948323932014</v>
+        <v>0.07844940714876734</v>
       </c>
       <c r="Q18">
-        <v>550.9279977408455</v>
+        <v>632.337302083102</v>
       </c>
       <c r="R18">
-        <v>550.9279977408455</v>
+        <v>5691.035718747918</v>
       </c>
       <c r="S18">
-        <v>0.01835430009397613</v>
+        <v>0.01857702014808168</v>
       </c>
       <c r="T18">
-        <v>0.01835430009397613</v>
+        <v>0.0208623929129402</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.90496562051567</v>
+        <v>8.333402</v>
       </c>
       <c r="H19">
-        <v>7.90496562051567</v>
+        <v>25.000206</v>
       </c>
       <c r="I19">
-        <v>0.2527810318313455</v>
+        <v>0.2500975034597578</v>
       </c>
       <c r="J19">
-        <v>0.2527810318313455</v>
+        <v>0.2659343603881907</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.45973330337453</v>
+        <v>1.487823</v>
       </c>
       <c r="N19">
-        <v>1.45973330337453</v>
+        <v>4.463469</v>
       </c>
       <c r="O19">
-        <v>0.001520799651608287</v>
+        <v>0.001456436298691036</v>
       </c>
       <c r="P19">
-        <v>0.001520799651608287</v>
+        <v>0.001538205870914276</v>
       </c>
       <c r="Q19">
-        <v>11.53914157829743</v>
+        <v>12.398627163846</v>
       </c>
       <c r="R19">
-        <v>11.53914157829743</v>
+        <v>111.587644474614</v>
       </c>
       <c r="S19">
-        <v>0.0003844293051422936</v>
+        <v>0.0003642510822507984</v>
       </c>
       <c r="T19">
-        <v>0.0003844293051422936</v>
+        <v>0.0004090617944269477</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.90496562051567</v>
+        <v>8.333402</v>
       </c>
       <c r="H20">
-        <v>7.90496562051567</v>
+        <v>25.000206</v>
       </c>
       <c r="I20">
-        <v>0.2527810318313455</v>
+        <v>0.2500975034597578</v>
       </c>
       <c r="J20">
-        <v>0.2527810318313455</v>
+        <v>0.2659343603881907</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.07098096819435</v>
+        <v>1.134058666666667</v>
       </c>
       <c r="N20">
-        <v>1.07098096819435</v>
+        <v>3.402176</v>
       </c>
       <c r="O20">
-        <v>0.001115784287132332</v>
+        <v>0.001110134879604961</v>
       </c>
       <c r="P20">
-        <v>0.001115784287132332</v>
+        <v>0.001172461844606437</v>
       </c>
       <c r="Q20">
-        <v>8.466067733802923</v>
+        <v>9.450566760917333</v>
       </c>
       <c r="R20">
-        <v>8.466067733802923</v>
+        <v>85.055100848256</v>
       </c>
       <c r="S20">
-        <v>0.0002820491034025132</v>
+        <v>0.0002776419618927996</v>
       </c>
       <c r="T20">
-        <v>0.0002820491034025132</v>
+        <v>0.000311797890724971</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.90496562051567</v>
+        <v>8.333402</v>
       </c>
       <c r="H21">
-        <v>7.90496562051567</v>
+        <v>25.000206</v>
       </c>
       <c r="I21">
-        <v>0.2527810318313455</v>
+        <v>0.2500975034597578</v>
       </c>
       <c r="J21">
-        <v>0.2527810318313455</v>
+        <v>0.2659343603881907</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>160.878608842685</v>
+        <v>162.913956</v>
       </c>
       <c r="N21">
-        <v>160.878608842685</v>
+        <v>325.827912</v>
       </c>
       <c r="O21">
-        <v>0.1676087897108194</v>
+        <v>0.1594771683740299</v>
       </c>
       <c r="P21">
-        <v>0.1676087897108194</v>
+        <v>0.1122871934690573</v>
       </c>
       <c r="Q21">
-        <v>1271.739871977813</v>
+        <v>1357.627486758312</v>
       </c>
       <c r="R21">
-        <v>1271.739871977813</v>
+        <v>8145.764920549871</v>
       </c>
       <c r="S21">
-        <v>0.04236832280710393</v>
+        <v>0.03988484166917634</v>
       </c>
       <c r="T21">
-        <v>0.04236832280710393</v>
+        <v>0.02986102297497879</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.02352706734482</v>
+        <v>5.9529025</v>
       </c>
       <c r="H22">
-        <v>5.02352706734482</v>
+        <v>11.905805</v>
       </c>
       <c r="I22">
-        <v>0.1606398327932614</v>
+        <v>0.1786552543114266</v>
       </c>
       <c r="J22">
-        <v>0.1606398327932614</v>
+        <v>0.1266454619446545</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>726.742657863424</v>
+        <v>780.134654</v>
       </c>
       <c r="N22">
-        <v>726.742657863424</v>
+        <v>2340.403962</v>
       </c>
       <c r="O22">
-        <v>0.7571451431111198</v>
+        <v>0.7636771497364756</v>
       </c>
       <c r="P22">
-        <v>0.7571451431111198</v>
+        <v>0.8065527316666545</v>
       </c>
       <c r="Q22">
-        <v>3650.811412771026</v>
+        <v>4644.065532133235</v>
       </c>
       <c r="R22">
-        <v>3650.811412771026</v>
+        <v>27864.39319279941</v>
       </c>
       <c r="S22">
-        <v>0.1216276691896002</v>
+        <v>0.1364349353979955</v>
       </c>
       <c r="T22">
-        <v>0.1216276691896002</v>
+        <v>0.1021462432846465</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.02352706734482</v>
+        <v>5.9529025</v>
       </c>
       <c r="H23">
-        <v>5.02352706734482</v>
+        <v>11.905805</v>
       </c>
       <c r="I23">
-        <v>0.1606398327932614</v>
+        <v>0.1786552543114266</v>
       </c>
       <c r="J23">
-        <v>0.1606398327932614</v>
+        <v>0.1266454619446545</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>69.6939144568862</v>
+        <v>75.879851</v>
       </c>
       <c r="N23">
-        <v>69.6939144568862</v>
+        <v>227.639553</v>
       </c>
       <c r="O23">
-        <v>0.07260948323932014</v>
+        <v>0.0742791107111984</v>
       </c>
       <c r="P23">
-        <v>0.07260948323932014</v>
+        <v>0.07844940714876734</v>
       </c>
       <c r="Q23">
-        <v>350.1092657033823</v>
+        <v>451.7053547175275</v>
       </c>
       <c r="R23">
-        <v>350.1092657033823</v>
+        <v>2710.232128305165</v>
       </c>
       <c r="S23">
-        <v>0.0116639752467695</v>
+        <v>0.01327035341413576</v>
       </c>
       <c r="T23">
-        <v>0.0116639752467695</v>
+        <v>0.009935261407639924</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.02352706734482</v>
+        <v>5.9529025</v>
       </c>
       <c r="H24">
-        <v>5.02352706734482</v>
+        <v>11.905805</v>
       </c>
       <c r="I24">
-        <v>0.1606398327932614</v>
+        <v>0.1786552543114266</v>
       </c>
       <c r="J24">
-        <v>0.1606398327932614</v>
+        <v>0.1266454619446545</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.45973330337453</v>
+        <v>1.487823</v>
       </c>
       <c r="N24">
-        <v>1.45973330337453</v>
+        <v>4.463469</v>
       </c>
       <c r="O24">
-        <v>0.001520799651608287</v>
+        <v>0.001456436298691036</v>
       </c>
       <c r="P24">
-        <v>0.001520799651608287</v>
+        <v>0.001538205870914276</v>
       </c>
       <c r="Q24">
-        <v>7.333009760606618</v>
+        <v>8.8568652562575</v>
       </c>
       <c r="R24">
-        <v>7.333009760606618</v>
+        <v>53.14119153754501</v>
       </c>
       <c r="S24">
-        <v>0.0002443010017464054</v>
+        <v>0.00026019999733104</v>
       </c>
       <c r="T24">
-        <v>0.0002443010017464054</v>
+        <v>0.0001948067930879181</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.02352706734482</v>
+        <v>5.9529025</v>
       </c>
       <c r="H25">
-        <v>5.02352706734482</v>
+        <v>11.905805</v>
       </c>
       <c r="I25">
-        <v>0.1606398327932614</v>
+        <v>0.1786552543114266</v>
       </c>
       <c r="J25">
-        <v>0.1606398327932614</v>
+        <v>0.1266454619446545</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.07098096819435</v>
+        <v>1.134058666666667</v>
       </c>
       <c r="N25">
-        <v>1.07098096819435</v>
+        <v>3.402176</v>
       </c>
       <c r="O25">
-        <v>0.001115784287132332</v>
+        <v>0.001110134879604961</v>
       </c>
       <c r="P25">
-        <v>0.001115784287132332</v>
+        <v>0.001172461844606437</v>
       </c>
       <c r="Q25">
-        <v>5.380101882335479</v>
+        <v>6.750940671946668</v>
       </c>
       <c r="R25">
-        <v>5.380101882335479</v>
+        <v>40.50564403168001</v>
       </c>
       <c r="S25">
-        <v>0.0001792394013182861</v>
+        <v>0.0001983314292358093</v>
       </c>
       <c r="T25">
-        <v>0.0001792394013182861</v>
+        <v>0.0001484869719226639</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.02352706734482</v>
+        <v>5.9529025</v>
       </c>
       <c r="H26">
-        <v>5.02352706734482</v>
+        <v>11.905805</v>
       </c>
       <c r="I26">
-        <v>0.1606398327932614</v>
+        <v>0.1786552543114266</v>
       </c>
       <c r="J26">
-        <v>0.1606398327932614</v>
+        <v>0.1266454619446545</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>160.878608842685</v>
+        <v>162.913956</v>
       </c>
       <c r="N26">
-        <v>160.878608842685</v>
+        <v>325.827912</v>
       </c>
       <c r="O26">
-        <v>0.1676087897108194</v>
+        <v>0.1594771683740299</v>
       </c>
       <c r="P26">
-        <v>0.1676087897108194</v>
+        <v>0.1122871934690573</v>
       </c>
       <c r="Q26">
-        <v>808.1780460780078</v>
+        <v>969.81089595729</v>
       </c>
       <c r="R26">
-        <v>808.1780460780078</v>
+        <v>3879.24358382916</v>
       </c>
       <c r="S26">
-        <v>0.02692464795382693</v>
+        <v>0.02849143407272852</v>
       </c>
       <c r="T26">
-        <v>0.02692464795382693</v>
+        <v>0.01422066348735756</v>
       </c>
     </row>
   </sheetData>
